--- a/src/main/resources/backup/Adverbs of Frequency.xlsx
+++ b/src/main/resources/backup/Adverbs of Frequency.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Adverbs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Adverbs" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -581,6 +581,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -588,7 +694,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -596,6 +702,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="47.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="54.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.67"/>
@@ -683,7 +790,6 @@
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -695,7 +801,6 @@
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -707,7 +812,6 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -719,7 +823,6 @@
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -1015,7 +1118,7 @@
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1029,7 +1132,7 @@
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1040,7 +1143,7 @@
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -1051,7 +1154,7 @@
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1062,7 +1165,7 @@
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -1070,7 +1173,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1084,7 +1187,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1092,7 +1195,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1100,7 +1203,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1108,7 +1211,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
